--- a/SisRestaurant/src/main/resources/doc/plantilla_productos.xlsx
+++ b/SisRestaurant/src/main/resources/doc/plantilla_productos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Documents\ProyectoPrueva\SisRestaurant\src\main\resources\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7048BAE7-6CAE-4195-9567-4674B0DC5614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D5B34CB-0B01-45AE-BD3C-4B111603484B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
-  <si>
-    <t>plato</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
+  <si>
+    <t>platos</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -39,34 +39,25 @@
     <t>sopa</t>
   </si>
   <si>
+    <t>entrada</t>
+  </si>
+  <si>
+    <t>postre</t>
+  </si>
+  <si>
     <t>bebidas</t>
   </si>
   <si>
+    <t>tallarines verdes</t>
+  </si>
+  <si>
+    <t>estofado de pollo</t>
+  </si>
+  <si>
     <t>arroz con pollo</t>
   </si>
   <si>
-    <t>tallaires verdes</t>
-  </si>
-  <si>
-    <t>saltado de atun</t>
-  </si>
-  <si>
-    <t>picante tacneño</t>
-  </si>
-  <si>
-    <t>papaliza con aji</t>
-  </si>
-  <si>
-    <t>caldo de pollo</t>
-  </si>
-  <si>
-    <t>sopa de casa</t>
-  </si>
-  <si>
-    <t>refresco maiz morado</t>
-  </si>
-  <si>
-    <t>gaseosa kr</t>
+    <t>chaufa de pollo</t>
   </si>
 </sst>
 </file>
@@ -461,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,9 +469,15 @@
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +487,14 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,10 +522,28 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -530,28 +551,10 @@
       <c r="C3">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -559,28 +562,10 @@
       <c r="C4">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
       </c>
       <c r="B5">
         <v>6</v>
@@ -589,25 +574,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
         <v>10</v>
       </c>
     </row>
@@ -618,7 +592,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -633,9 +607,15 @@
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -645,8 +625,14 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -672,6 +658,24 @@
         <v>2</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -682,7 +686,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -697,9 +701,15 @@
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -709,8 +719,14 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -736,6 +752,24 @@
         <v>2</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
